--- a/src/data/profiles/xlsx/bluff/profile 33-2 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 33-2 graph.xlsx
@@ -20962,11 +20962,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26821758"/>
-        <c:axId val="51145082"/>
+        <c:axId val="23708457"/>
+        <c:axId val="38444555"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26821758"/>
+        <c:axId val="23708457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21001,12 +21001,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51145082"/>
+        <c:crossAx val="38444555"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51145082"/>
+        <c:axId val="38444555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21050,7 +21050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26821758"/>
+        <c:crossAx val="23708457"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
